--- a/Resources/MDT_Stock_Import_Example.xlsx
+++ b/Resources/MDT_Stock_Import_Example.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>ลำดับที่</t>
+  </si>
   <si>
     <t>วันที่บันทึกในฐานข้อมูล</t>
   </si>
@@ -141,11 +144,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" xfId="0"/>
     <xf numFmtId="0" fontId="2" applyFont="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" applyFont="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,17 +172,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5338554382324" customWidth="1" style="1"/>
-    <col min="2" max="2" width="14.1393222808838" customWidth="1" style="1"/>
-    <col min="3" max="3" width="10.5559902191162" customWidth="1" style="1"/>
-    <col min="4" max="4" width="10.1197910308838" customWidth="1" style="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
-    <col min="6" max="6" width="9.58247375488281" customWidth="1" style="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1" style="1"/>
-    <col min="8" max="8" width="9.28775978088379" customWidth="1" style="1"/>
-    <col min="9" max="9" width="9.63020896911621" customWidth="1" style="1"/>
-    <col min="10" max="10" width="9.42522239685059" customWidth="1" style="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="18.5338554382324" customWidth="1" style="1"/>
+    <col min="3" max="3" width="14.1393222808838" customWidth="1" style="1"/>
+    <col min="4" max="4" width="10.5559902191162" customWidth="1" style="1"/>
+    <col min="5" max="5" width="10.1197910308838" customWidth="1" style="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
+    <col min="7" max="7" width="9.58247375488281" customWidth="1" style="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1" style="1"/>
+    <col min="9" max="9" width="9.28775978088379" customWidth="1" style="1"/>
+    <col min="10" max="10" width="9.63020896911621" customWidth="1" style="1"/>
+    <col min="11" max="11" width="9.42522239685059" customWidth="1" style="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1" style="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1" style="1"/>
     <col min="14" max="16384" width="9.140625" customWidth="1" style="1"/>
@@ -216,43 +222,49 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="L2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3"/>
     </row>
   </sheetData>
   <headerFooter/>
@@ -273,18 +285,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
